--- a/team_specific_matrix/Schreiner_A.xlsx
+++ b/team_specific_matrix/Schreiner_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7142857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2857142857142857</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S6">
-        <v>0.5714285714285714</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1538461538461539</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.07692307692307693</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S7">
-        <v>0.5384615384615384</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04545454545454546</v>
+        <v>0.0625</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04545454545454546</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="F8">
-        <v>0.04545454545454546</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1818181818181818</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1818181818181818</v>
+        <v>0.125</v>
       </c>
       <c r="R8">
-        <v>0.04545454545454546</v>
+        <v>0.0625</v>
       </c>
       <c r="S8">
-        <v>0.4545454545454545</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1176470588235294</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09803921568627451</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09803921568627451</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.196078431372549</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="R10">
-        <v>0.0392156862745098</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="S10">
-        <v>0.4509803921568628</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3157894736842105</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05263157894736842</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K11">
-        <v>0.3157894736842105</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L11">
-        <v>0.3157894736842105</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8333333333333334</v>
+        <v>0.9</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I16">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3333333333333333</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K17">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.2</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2741935483870968</v>
+        <v>0.2734375</v>
       </c>
       <c r="I19">
-        <v>0.06451612903225806</v>
+        <v>0.1015625</v>
       </c>
       <c r="J19">
-        <v>0.4032258064516129</v>
+        <v>0.40625</v>
       </c>
       <c r="K19">
-        <v>0.1451612903225807</v>
+        <v>0.09375</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03225806451612903</v>
+        <v>0.0234375</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.06451612903225806</v>
+        <v>0.0703125</v>
       </c>
     </row>
   </sheetData>
